--- a/test.xlsx
+++ b/test.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,36 +427,45 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="30"/>
+    <col customWidth="1" max="1" min="1" width="20"/>
+    <col customWidth="1" max="2" min="2" width="30"/>
+    <col customWidth="1" max="3" min="3" width="10"/>
+    <col customWidth="1" max="4" min="4" width="30"/>
+    <col customWidth="1" max="6" min="6" width="10"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>フェーズ</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>タスク</t>
-        </is>
-      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>タスク内容</t>
+          <t>タスク名</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>タスク説明</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>更新日</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ステータス</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>担当者</t>
         </is>
@@ -465,84 +474,234 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>5fc4c2460348e0154976855a</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
+          <t>todo list</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>5fc651a75b368c0a1c82091a</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>todo2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>ToDo</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Lin ker</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>5fcdfa94adbda666986c3d65</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>todo</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>ToDo</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>InProgress</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
         <is>
           <t>5fc651a909611f36005f393c</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>todo3</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>ToDo</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>5fc651a75b368c0a1c82091a</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>InProgress</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>5fcdfa94adbda666986c3d66</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>todo3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>InProgress</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>5fcdfa94adbda666986c3d64</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>todo2</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>ToDo</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>InProgress</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
         <is>
           <t>5fc4c25419ef983c9f142235</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>in progress</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
         <is>
           <t>InProgress</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Lin ker</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>5fcdfaa84025005863d4d2d1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>todo</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>InProgress</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>5fcdfaa84025005863d4d2d2</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>todo3</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>InProgress</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>5fcdfaa84025005863d4d2d3</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>todo2</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>InProgress</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>5fc4c258c1fe5e54f789f5b9</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Lin ker</t>
+        </is>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:G2"/>
+  </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -39,12 +39,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -53,7 +68,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -419,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,7 +446,8 @@
     <col customWidth="1" max="2" min="2" width="30"/>
     <col customWidth="1" max="3" min="3" width="10"/>
     <col customWidth="1" max="4" min="4" width="30"/>
-    <col customWidth="1" max="6" min="6" width="10"/>
+    <col customWidth="1" max="5" min="5" width="25"/>
+    <col customWidth="1" max="6" min="6" width="25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -457,15 +473,20 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>開始日</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>更新日</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>ステータス</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>担当者</t>
         </is>
@@ -481,218 +502,308 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>5fc651a75b368c0a1c82091a</t>
+          <t>5fc4c2460348e0154976855a</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>todo2</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+          <t>todo</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2020-11-30T09:58:30.548Z</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ToDo</t>
+          <t>2020-12-09T11:10:14.988Z</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lin ker</t>
-        </is>
-      </c>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>5fcdfa94adbda666986c3d65</t>
+          <t>5fc4c25419ef983c9f142235</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>todo</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+          <t>in progress</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2020-11-30T09:58:44.163Z</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>2020-11-30T09:58:58.824Z</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>InProgress</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>5fc651a909611f36005f393c</t>
+          <t>5fc4c258c1fe5e54f789f5b9</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>todo3</t>
+          <t>done</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2020-11-30T09:58:49.024Z</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>InProgress</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
+          <t>2020-12-07T09:49:50.695Z</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Lin ker</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>5fcdfa94adbda666986c3d66</t>
+          <t>5fc651a75b368c0a1c82091a</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>todo3</t>
+          <t>todo2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2020-12-01T14:22:31.351Z</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>InProgress</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
+          <t>2020-12-09T11:51:50.427Z</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>ToDo</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>5fcdfa94adbda666986c3d64</t>
+          <t>5fc651a909611f36005f393c</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>todo2</t>
+          <t>todo3</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2020-12-01T14:22:33.124Z</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>2020-12-07T09:56:41.690Z</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>InProgress</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>5fc4c25419ef983c9f142235</t>
+          <t>5fcdfa94adbda666986c3d66</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>in progress</t>
+          <t>todo3</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2020-12-07T09:49:08.264Z</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>2020-12-07T09:56:36.623Z</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>InProgress</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Lin ker</t>
-        </is>
-      </c>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>5fcdfaa84025005863d4d2d1</t>
+          <t>5fcdfa94adbda666986c3d64</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>todo</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
+          <t>todo2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2020-12-07T09:49:08.267Z</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>2020-12-07T09:56:38.680Z</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>InProgress</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Lin ker</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>5fcdfaa84025005863d4d2d2</t>
+          <t>5fcdfa94adbda666986c3d65</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>todo3</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+          <t>todo</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2020-12-07T09:49:08.340Z</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>2020-12-07T09:56:31.827Z</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>InProgress</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>5fcdfaa84025005863d4d2d3</t>
+          <t>5fcdfaa84025005863d4d2d2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>todo2</t>
+          <t>todo3</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2020-12-07T09:49:28.366Z</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>2020-12-07T09:49:41.457Z</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>InProgress</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>5fc4c258c1fe5e54f789f5b9</t>
+          <t>5fcdfaa84025005863d4d2d3</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>done</t>
+          <t>todo2</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2020-12-07T09:49:28.366Z</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>2020-12-07T09:49:41.506Z</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
+        <is>
+          <t>InProgress</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Lin ker</t>
         </is>
@@ -700,7 +811,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A2:H2"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/test.xlsx
+++ b/test.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,6 +448,7 @@
     <col customWidth="1" max="4" min="4" width="30"/>
     <col customWidth="1" max="5" min="5" width="25"/>
     <col customWidth="1" max="6" min="6" width="25"/>
+    <col customWidth="1" max="7" min="7" width="25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -498,6 +499,33 @@
           <t>todo list</t>
         </is>
       </c>
+      <c r="I2" t="n">
+        <v>9</v>
+      </c>
+      <c r="J2" t="n">
+        <v>16</v>
+      </c>
+      <c r="K2" t="n">
+        <v>23</v>
+      </c>
+      <c r="L2" t="n">
+        <v>7</v>
+      </c>
+      <c r="M2" t="n">
+        <v>14</v>
+      </c>
+      <c r="N2" t="n">
+        <v>21</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3</v>
+      </c>
+      <c r="P2" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="3">
       <c r="B3" t="inlineStr">
@@ -810,7 +838,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="H1:R1"/>
     <mergeCell ref="A2:H2"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -837,6 +837,39 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>5fcdfaa84025005863d4d2d1</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>todo</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2020-12-07T09:49:28.431Z</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2020-12-07T09:49:41.410Z</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>InProgress</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="H1:R1"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -26,7 +26,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -35,7 +35,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0000FF00"/>
+        <fgColor rgb="0055FF55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF55"/>
       </patternFill>
     </fill>
   </fills>
@@ -66,9 +71,10 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -434,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,439 +448,446 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="20"/>
+    <col customWidth="1" max="1" min="1" width="30"/>
     <col customWidth="1" max="2" min="2" width="30"/>
-    <col customWidth="1" max="3" min="3" width="10"/>
+    <col customWidth="1" max="3" min="3" width="40"/>
     <col customWidth="1" max="4" min="4" width="30"/>
-    <col customWidth="1" max="5" min="5" width="25"/>
-    <col customWidth="1" max="6" min="6" width="25"/>
-    <col customWidth="1" max="7" min="7" width="25"/>
+    <col customWidth="1" max="5" min="5" width="30"/>
+    <col customWidth="1" max="6" min="6" width="20"/>
+    <col customWidth="1" max="7" min="7" width="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>フェーズ</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>タスク名</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>タスク名</t>
+          <t>説明</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>タスク説明</t>
+          <t>開始日</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>開始日</t>
+          <t>更新日</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>更新日</t>
+          <t>ステータス</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ステータス</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
           <t>担当者</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>5fc0cbdbdbdcc573644c025f</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>todo list</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v>9</v>
-      </c>
-      <c r="J2" t="n">
-        <v>16</v>
-      </c>
-      <c r="K2" t="n">
-        <v>23</v>
-      </c>
-      <c r="L2" t="n">
-        <v>7</v>
-      </c>
-      <c r="M2" t="n">
-        <v>14</v>
-      </c>
-      <c r="N2" t="n">
-        <v>21</v>
-      </c>
-      <c r="O2" t="n">
-        <v>3</v>
-      </c>
-      <c r="P2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>17</v>
-      </c>
+      <c r="C2" s="2" t="inlineStr"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>5fc4c2460348e0154976855a</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5fc4c2460348e0154976855a</t>
+          <t>todo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2020-11-30T09:58:30.548Z</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2020-12-09T11:10:14.988Z</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Lin ker</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>5fc4c25419ef983c9f142235</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>in progress</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2020-11-30T09:58:44.163Z</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2020-11-30T09:58:58.824Z</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>InProgress</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>5fc4c258c1fe5e54f789f5b9</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2020-11-30T09:58:49.024Z</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2020-12-07T09:49:50.695Z</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5fc651a75b368c0a1c82091a</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>todo2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2020-12-01T14:22:31.351Z</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2020-12-09T11:51:50.427Z</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>ToDo</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Lin ker</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>5fc651a909611f36005f393c</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>todo3</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2020-12-01T14:22:33.124Z</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2020-12-07T09:56:41.690Z</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>InProgress</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>5fcdfa94adbda666986c3d66</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>todo3</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2020-12-07T09:49:08.264Z</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2020-12-07T09:56:36.623Z</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>InProgress</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>5fcdfa94adbda666986c3d64</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>todo2</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2020-12-07T09:49:08.267Z</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2020-12-07T09:56:38.680Z</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>InProgress</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>5fcdfa94adbda666986c3d65</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>todo</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2020-11-30T09:58:30.548Z</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2020-12-09T11:10:14.988Z</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>5fc4c25419ef983c9f142235</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>in progress</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2020-11-30T09:58:44.163Z</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2020-11-30T09:58:58.824Z</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2020-12-07T09:49:08.340Z</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2020-12-07T09:56:31.827Z</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>InProgress</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>5fc4c258c1fe5e54f789f5b9</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2020-11-30T09:58:49.024Z</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2020-12-07T09:49:50.695Z</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Lin ker</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>5fc651a75b368c0a1c82091a</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>5fcdfaa84025005863d4d2d2</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>todo3</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2020-12-07T09:49:28.366Z</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2020-12-07T09:49:41.457Z</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>InProgress</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>5fcdfaa84025005863d4d2d3</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>todo2</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2020-12-01T14:22:31.351Z</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2020-12-09T11:51:50.427Z</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2020-12-07T09:49:28.366Z</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2020-12-07T09:49:41.506Z</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>InProgress</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>5fcdfaa84025005863d4d2d1</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>todo</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2020-12-07T09:49:28.431Z</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2020-12-07T09:49:41.410Z</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>InProgress</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Lin ker</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>5fd2310865a443187ba13a3c</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2020-12-10T14:30:32.466Z</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2020-12-10T14:30:32.418Z</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
         <is>
           <t>ToDo</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>5fc651a909611f36005f393c</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>todo3</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2020-12-01T14:22:33.124Z</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2020-12-07T09:56:41.690Z</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>InProgress</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>5fcdfa94adbda666986c3d66</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>todo3</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2020-12-07T09:49:08.264Z</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2020-12-07T09:56:36.623Z</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>InProgress</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>5fcdfa94adbda666986c3d64</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>todo2</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2020-12-07T09:49:08.267Z</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2020-12-07T09:56:38.680Z</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>InProgress</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Lin ker</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>5fcdfa94adbda666986c3d65</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>todo</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2020-12-07T09:49:08.340Z</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2020-12-07T09:56:31.827Z</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>InProgress</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>5fcdfaa84025005863d4d2d2</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>todo3</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2020-12-07T09:49:28.366Z</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2020-12-07T09:49:41.457Z</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>InProgress</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>5fcdfaa84025005863d4d2d3</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>todo2</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2020-12-07T09:49:28.366Z</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2020-12-07T09:49:41.506Z</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>InProgress</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Lin ker</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>5fcdfaa84025005863d4d2d1</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>todo</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2020-12-07T09:49:28.431Z</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2020-12-07T09:49:41.410Z</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>InProgress</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="H1:R1"/>
-    <mergeCell ref="A2:H2"/>
-  </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>